--- a/AutomationFramework/excel_logs/hardware_test_hw_transceiver_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_transceiver_logs.xlsx
@@ -552,7 +552,7 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:6423612f-4fb3-4573-8b5c-e78e46bff416"
+&lt;rpc-reply message-id="urn:uuid:9c3cd40f-1f4d-4bea-8f7f-2de41d85467b"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -619,7 +619,7 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:82851aea-0718-4f4c-a27d-a29bde15d099"
+&lt;rpc-reply message-id="urn:uuid:de378883-57c4-45dd-8c6c-6571c951f169"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;

--- a/AutomationFramework/excel_logs/hardware_test_hw_transceiver_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_transceiver_logs.xlsx
@@ -552,7 +552,7 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:9c3cd40f-1f4d-4bea-8f7f-2de41d85467b"
+&lt;rpc-reply message-id="urn:uuid:9339808a-5918-4b07-91dd-7a821994ed20"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
@@ -619,7 +619,7 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:de378883-57c4-45dd-8c6c-6571c951f169"
+&lt;rpc-reply message-id="urn:uuid:b7a4eb79-0f7c-44e1-9809-57ce46fb551b"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-07T13:51:28Z" ncx:etag="814"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
